--- a/3.ehome/02-项目计划/邻里圈项目开发进度计划 V1.1.xlsx
+++ b/3.ehome/02-项目计划/邻里圈项目开发进度计划 V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="732"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度计划" sheetId="4" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>评论话题</t>
   </si>
   <si>
-    <t>侯风飞</t>
-  </si>
-  <si>
     <t>好友列表</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>@我的</t>
+  </si>
+  <si>
+    <t>邵德才</t>
   </si>
   <si>
     <t>屏蔽Ta的发言</t>
@@ -290,11 +290,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -373,9 +373,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -386,6 +431,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -394,38 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -455,14 +496,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -472,78 +505,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,13 +527,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
@@ -582,14 +595,9 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -600,6 +608,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -608,7 +622,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="HP Logo LG"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -619,68 +681,6 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="HP Logo LG"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="58">
     <fill>
@@ -715,19 +715,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,49 +913,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,163 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +973,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,36 +1010,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,12 +1170,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1194,17 +1231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1212,15 +1238,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,17 +1257,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,14 +1281,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1291,15 +1300,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1308,6 +1308,39 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,17 +1360,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1353,28 +1375,6 @@
       <bottom style="double">
         <color indexed="52"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1413,10 +1413,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,231 +1425,231 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="52" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" applyBorder="0">
+    <xf numFmtId="0" fontId="45" fillId="53" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="20" applyBorder="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" applyBorder="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="54" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="36" fillId="57" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="52" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="25" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="29" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,7 +1658,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2420,11 +2420,11 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3129,7 +3129,7 @@
       <c r="J20" s="25"/>
       <c r="K20" s="62"/>
       <c r="L20" s="66" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M20" s="25">
         <v>42964</v>
@@ -3152,7 +3152,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="35"/>
       <c r="D21" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
@@ -3162,7 +3162,7 @@
       <c r="J21" s="25"/>
       <c r="K21" s="62"/>
       <c r="L21" s="66" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M21" s="25">
         <v>42965</v>
@@ -3184,10 +3184,10 @@
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="39"/>
@@ -3197,7 +3197,7 @@
       <c r="J22" s="25"/>
       <c r="K22" s="62"/>
       <c r="L22" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M22" s="25">
         <v>42949</v>
@@ -3230,7 +3230,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M23" s="25">
         <v>42954</v>
@@ -3263,7 +3263,7 @@
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M24" s="25">
         <v>42957</v>
@@ -3296,7 +3296,7 @@
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M25" s="25">
         <v>42961</v>
@@ -3329,7 +3329,7 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M26" s="25">
         <v>42962</v>
@@ -3362,7 +3362,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M27" s="25">
         <v>42963</v>
@@ -3395,7 +3395,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
@@ -3421,7 +3421,7 @@
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>

--- a/3.ehome/02-项目计划/邻里圈项目开发进度计划 V1.1.xlsx
+++ b/3.ehome/02-项目计划/邻里圈项目开发进度计划 V1.1.xlsx
@@ -13,10 +13,10 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目进度计划!$A$3:$T$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目进度计划!$A$3:$T$61</definedName>
     <definedName name="P_ALL">#REF!</definedName>
     <definedName name="P_LOG">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">项目进度计划!$A$1:$U$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">项目进度计划!$A$1:$U$61</definedName>
     <definedName name="R_LOG">#REF!</definedName>
     <definedName name="StaffName">[1]定义!$D$4:$D$73</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>项目进度计划</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>发送发言</t>
+  </si>
+  <si>
+    <t>首页数量统计</t>
   </si>
   <si>
     <t>我家</t>
@@ -341,11 +344,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -423,53 +426,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -484,6 +483,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -493,40 +554,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <name val="HP Logo LG"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -534,18 +586,32 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -556,125 +622,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,14 +631,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -702,14 +694,20 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="HP Logo LG"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -720,18 +718,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="58">
     <fill>
@@ -766,163 +769,295 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,145 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,36 +1209,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1254,22 +1239,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="63"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,41 +1284,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,18 +1334,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1382,17 +1376,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="8"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="22"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,49 +1440,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,10 +1467,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1476,231 +1479,231 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyBorder="0">
+    <xf numFmtId="0" fontId="48" fillId="57" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" applyBorder="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" applyBorder="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="30" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1709,7 +1712,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1975,10 +1978,10 @@
     <cellStyle name="超链接" xfId="11" builtinId="8"/>
     <cellStyle name="百分比" xfId="12" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="15"/>
-    <cellStyle name="Header 1" xfId="16"/>
-    <cellStyle name="40% - Accent6" xfId="17"/>
+    <cellStyle name="40% - Accent6" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="Header 1" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
@@ -2012,13 +2015,13 @@
     <cellStyle name="Table Heading" xfId="48"/>
     <cellStyle name="强调文字颜色 4" xfId="49" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="50" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="51"/>
-    <cellStyle name="60% - Accent1" xfId="52"/>
+    <cellStyle name="60% - Accent1" xfId="51"/>
+    <cellStyle name="20% - Accent5" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="53" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="54" builtinId="45"/>
-    <cellStyle name="20% - Accent6" xfId="55"/>
-    <cellStyle name="常规 2 2" xfId="56"/>
-    <cellStyle name="60% - Accent2" xfId="57"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="60% - Accent2" xfId="56"/>
+    <cellStyle name="20% - Accent6" xfId="57"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="58" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="59" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="60" builtinId="49"/>
@@ -2026,8 +2029,8 @@
     <cellStyle name="60% - Accent3" xfId="62"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="63" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="64" builtinId="52"/>
-    <cellStyle name="20% - Accent1" xfId="65"/>
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10;" xfId="66"/>
+    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10;" xfId="65"/>
+    <cellStyle name="20% - Accent1" xfId="66"/>
     <cellStyle name="40% - Accent1" xfId="67"/>
     <cellStyle name="40% - Accent2" xfId="68"/>
     <cellStyle name="40% - Accent3" xfId="69"/>
@@ -2044,8 +2047,8 @@
     <cellStyle name="Accent6" xfId="80"/>
     <cellStyle name="Bad" xfId="81"/>
     <cellStyle name="Calculation" xfId="82"/>
-    <cellStyle name="Check Cell" xfId="83"/>
-    <cellStyle name="Table Small Center" xfId="84"/>
+    <cellStyle name="Table Small Center" xfId="83"/>
+    <cellStyle name="Check Cell" xfId="84"/>
     <cellStyle name="Explanatory Text" xfId="85"/>
     <cellStyle name="Good" xfId="86"/>
     <cellStyle name="Header 2" xfId="87"/>
@@ -2066,8 +2069,8 @@
     <cellStyle name="Table Small" xfId="102"/>
     <cellStyle name="Table Small Bold" xfId="103"/>
     <cellStyle name="Table Title" xfId="104"/>
-    <cellStyle name="Title" xfId="105"/>
-    <cellStyle name="常规 2" xfId="106"/>
+    <cellStyle name="常规 2" xfId="105"/>
+    <cellStyle name="Title" xfId="106"/>
     <cellStyle name="Total" xfId="107"/>
     <cellStyle name="Warning Text" xfId="108"/>
     <cellStyle name="標準 2" xfId="109"/>
@@ -2462,14 +2465,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3091,8 +3094,12 @@
         <v>1</v>
       </c>
       <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="Q16" s="25">
+        <v>42958</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S16" s="72"/>
       <c r="T16" s="73"/>
     </row>
@@ -3126,8 +3133,12 @@
         <v>1</v>
       </c>
       <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="Q17" s="25">
+        <v>42958</v>
+      </c>
+      <c r="R17" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S17" s="72"/>
       <c r="T17" s="73"/>
     </row>
@@ -3145,13 +3156,19 @@
       <c r="I18" s="63"/>
       <c r="J18" s="25"/>
       <c r="K18" s="63"/>
-      <c r="L18" s="67"/>
+      <c r="L18" s="67" t="s">
+        <v>35</v>
+      </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="66"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="Q18" s="25">
+        <v>42961</v>
+      </c>
+      <c r="R18" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S18" s="72"/>
       <c r="T18" s="73"/>
     </row>
@@ -3169,13 +3186,19 @@
       <c r="I19" s="63"/>
       <c r="J19" s="25"/>
       <c r="K19" s="63"/>
-      <c r="L19" s="67"/>
+      <c r="L19" s="67" t="s">
+        <v>35</v>
+      </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="66"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="Q19" s="25">
+        <v>42961</v>
+      </c>
+      <c r="R19" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S19" s="72"/>
       <c r="T19" s="73"/>
     </row>
@@ -3207,8 +3230,12 @@
         <v>1</v>
       </c>
       <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="Q20" s="25">
+        <v>42961</v>
+      </c>
+      <c r="R20" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S20" s="72"/>
       <c r="T20" s="73"/>
     </row>
@@ -3240,8 +3267,12 @@
         <v>1</v>
       </c>
       <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="Q21" s="25">
+        <v>42961</v>
+      </c>
+      <c r="R21" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S21" s="72"/>
       <c r="T21" s="73"/>
     </row>
@@ -3294,7 +3325,9 @@
       <c r="I23" s="63"/>
       <c r="J23" s="25"/>
       <c r="K23" s="63"/>
-      <c r="L23" s="67"/>
+      <c r="L23" s="67" t="s">
+        <v>35</v>
+      </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="66"/>
@@ -3328,7 +3361,7 @@
         <v>42965</v>
       </c>
       <c r="O24" s="66">
-        <f t="shared" ref="O24:O32" si="1">IF(OR(M24="",N24=""),"",NETWORKDAYS(M24,N24))</f>
+        <f t="shared" ref="O24:O33" si="1">IF(OR(M24="",N24=""),"",NETWORKDAYS(M24,N24))</f>
         <v>1</v>
       </c>
       <c r="P24" s="25"/>
@@ -3406,8 +3439,12 @@
         <v>2</v>
       </c>
       <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="67"/>
+      <c r="Q26" s="25">
+        <v>42958</v>
+      </c>
+      <c r="R26" s="67" t="s">
+        <v>22</v>
+      </c>
       <c r="S26" s="70"/>
       <c r="T26" s="73"/>
     </row>
@@ -3556,8 +3593,12 @@
         <v>1</v>
       </c>
       <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="Q30" s="25">
+        <v>42958</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="S30" s="72"/>
       <c r="T30" s="74"/>
     </row>
@@ -3653,7 +3694,7 @@
         <v>42957</v>
       </c>
       <c r="O33" s="66">
-        <f t="shared" ref="O33:O39" si="2">IF(OR(M33="",N33=""),"",NETWORKDAYS(M33,N33))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P33" s="25">
@@ -3670,12 +3711,10 @@
     </row>
     <row r="34" s="4" customFormat="1" spans="1:20">
       <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="48" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="47" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>64</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="40"/>
@@ -3687,18 +3726,13 @@
       <c r="L34" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="M34" s="25">
-        <v>42958</v>
-      </c>
-      <c r="N34" s="25">
-        <v>42958</v>
-      </c>
-      <c r="O34" s="66">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="66"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
+      <c r="Q34" s="25">
+        <v>42961</v>
+      </c>
       <c r="R34" s="25" t="s">
         <v>22</v>
       </c>
@@ -3708,7 +3742,9 @@
     <row r="35" s="4" customFormat="1" spans="1:20">
       <c r="A35" s="31"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="48"/>
+      <c r="C35" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="D35" s="43" t="s">
         <v>65</v>
       </c>
@@ -3723,21 +3759,17 @@
         <v>27</v>
       </c>
       <c r="M35" s="25">
-        <v>42961</v>
+        <v>42958</v>
       </c>
       <c r="N35" s="25">
-        <v>42961</v>
+        <v>42958</v>
       </c>
       <c r="O35" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O35:O40" si="2">IF(OR(M35="",N35=""),"",NETWORKDAYS(M35,N35))</f>
         <v>1</v>
       </c>
-      <c r="P35" s="25">
-        <v>42957</v>
-      </c>
-      <c r="Q35" s="25">
-        <v>42957</v>
-      </c>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
       <c r="R35" s="25" t="s">
         <v>22</v>
       </c>
@@ -3762,10 +3794,10 @@
         <v>27</v>
       </c>
       <c r="M36" s="25">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="N36" s="25">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="O36" s="66">
         <f t="shared" si="2"/>
@@ -3787,10 +3819,10 @@
       <c r="A37" s="31"/>
       <c r="B37" s="32"/>
       <c r="C37" s="48"/>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="40"/>
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
@@ -3801,20 +3833,20 @@
         <v>27</v>
       </c>
       <c r="M37" s="25">
-        <v>42963</v>
+        <v>42962</v>
       </c>
       <c r="N37" s="25">
-        <v>42963</v>
+        <v>42962</v>
       </c>
       <c r="O37" s="66">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P37" s="25">
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="Q37" s="25">
-        <v>42955</v>
+        <v>42957</v>
       </c>
       <c r="R37" s="25" t="s">
         <v>22</v>
@@ -3840,10 +3872,10 @@
         <v>27</v>
       </c>
       <c r="M38" s="25">
-        <v>42964</v>
+        <v>42963</v>
       </c>
       <c r="N38" s="25">
-        <v>42964</v>
+        <v>42963</v>
       </c>
       <c r="O38" s="66">
         <f t="shared" si="2"/>
@@ -3864,7 +3896,7 @@
     <row r="39" s="4" customFormat="1" spans="1:20">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="42" t="s">
         <v>69</v>
       </c>
@@ -3879,10 +3911,10 @@
         <v>27</v>
       </c>
       <c r="M39" s="25">
-        <v>42965</v>
+        <v>42964</v>
       </c>
       <c r="N39" s="25">
-        <v>42965</v>
+        <v>42964</v>
       </c>
       <c r="O39" s="66">
         <f t="shared" si="2"/>
@@ -3900,48 +3932,54 @@
       <c r="S39" s="72"/>
       <c r="T39" s="74"/>
     </row>
-    <row r="40" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
+    <row r="40" s="4" customFormat="1" spans="1:20">
       <c r="A40" s="31"/>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" s="68">
-        <v>42942</v>
-      </c>
-      <c r="N40" s="68">
-        <v>42942</v>
+        <v>27</v>
+      </c>
+      <c r="M40" s="25">
+        <v>42965</v>
+      </c>
+      <c r="N40" s="25">
+        <v>42965</v>
       </c>
       <c r="O40" s="66">
-        <f t="shared" ref="O38:O56" si="3">IF(OR(M40="",N40=""),"",NETWORKDAYS(M40,N40))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="70"/>
+      <c r="P40" s="25">
+        <v>42955</v>
+      </c>
+      <c r="Q40" s="25">
+        <v>42955</v>
+      </c>
+      <c r="R40" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="72"/>
       <c r="T40" s="74"/>
     </row>
-    <row r="41" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="41" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:20">
       <c r="A41" s="31"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52" t="s">
+      <c r="B41" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E41" s="23"/>
@@ -3955,25 +3993,25 @@
         <v>35</v>
       </c>
       <c r="M41" s="68">
-        <v>42943</v>
+        <v>42942</v>
       </c>
       <c r="N41" s="68">
-        <v>42943</v>
+        <v>42942</v>
       </c>
       <c r="O41" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O39:O57" si="3">IF(OR(M41="",N41=""),"",NETWORKDAYS(M41,N41))</f>
         <v>1</v>
       </c>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="67"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="25"/>
       <c r="S41" s="70"/>
       <c r="T41" s="74"/>
     </row>
     <row r="42" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A42" s="31"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="52" t="s">
         <v>74</v>
       </c>
@@ -3988,10 +4026,10 @@
         <v>35</v>
       </c>
       <c r="M42" s="68">
-        <v>42947</v>
-      </c>
-      <c r="N42" s="69">
-        <v>42947</v>
+        <v>42943</v>
+      </c>
+      <c r="N42" s="68">
+        <v>42943</v>
       </c>
       <c r="O42" s="66">
         <f t="shared" si="3"/>
@@ -4006,11 +4044,9 @@
     <row r="43" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A43" s="31"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="53"/>
+      <c r="D43" s="52" t="s">
         <v>75</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>76</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
@@ -4023,25 +4059,27 @@
         <v>35</v>
       </c>
       <c r="M43" s="68">
-        <v>42948</v>
-      </c>
-      <c r="N43" s="68">
-        <v>42948</v>
+        <v>42947</v>
+      </c>
+      <c r="N43" s="69">
+        <v>42947</v>
       </c>
       <c r="O43" s="66">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P43" s="25"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="73"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="74"/>
     </row>
     <row r="44" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A44" s="31"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
+      <c r="C44" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="D44" s="52" t="s">
         <v>77</v>
       </c>
@@ -4056,20 +4094,20 @@
         <v>35</v>
       </c>
       <c r="M44" s="68">
-        <v>42949</v>
+        <v>42948</v>
       </c>
       <c r="N44" s="68">
-        <v>42949</v>
+        <v>42948</v>
       </c>
       <c r="O44" s="66">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="74"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="73"/>
     </row>
     <row r="45" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A45" s="31"/>
@@ -4089,14 +4127,14 @@
         <v>35</v>
       </c>
       <c r="M45" s="68">
-        <v>42950</v>
+        <v>42949</v>
       </c>
       <c r="N45" s="68">
-        <v>42951</v>
+        <v>42949</v>
       </c>
       <c r="O45" s="66">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
@@ -4107,11 +4145,9 @@
     <row r="46" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A46" s="31"/>
       <c r="B46" s="50"/>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="52" t="s">
         <v>79</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>80</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="24"/>
@@ -4121,13 +4157,13 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
       <c r="L46" s="67" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="M46" s="68">
-        <v>42956</v>
+        <v>42950</v>
       </c>
       <c r="N46" s="68">
-        <v>42957</v>
+        <v>42951</v>
       </c>
       <c r="O46" s="66">
         <f t="shared" si="3"/>
@@ -4135,16 +4171,18 @@
       </c>
       <c r="P46" s="25"/>
       <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="72"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="70"/>
       <c r="T46" s="74"/>
     </row>
-    <row r="47" s="4" customFormat="1" ht="27" spans="1:20">
+    <row r="47" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A47" s="31"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="55"/>
+      <c r="C47" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="D47" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="24"/>
@@ -4154,21 +4192,21 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M47" s="68">
-        <v>42958</v>
+        <v>42956</v>
       </c>
       <c r="N47" s="68">
-        <v>42958</v>
+        <v>42957</v>
       </c>
       <c r="O47" s="66">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="25"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
       <c r="S47" s="72"/>
       <c r="T47" s="74"/>
     </row>
@@ -4187,13 +4225,13 @@
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
       <c r="L48" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M48" s="68">
-        <v>42961</v>
+        <v>42958</v>
       </c>
       <c r="N48" s="68">
-        <v>42961</v>
+        <v>42958</v>
       </c>
       <c r="O48" s="66">
         <f t="shared" si="3"/>
@@ -4205,14 +4243,12 @@
       <c r="S48" s="72"/>
       <c r="T48" s="74"/>
     </row>
-    <row r="49" s="4" customFormat="1" ht="13.5" spans="1:20">
+    <row r="49" s="4" customFormat="1" ht="27" spans="1:20">
       <c r="A49" s="31"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="52" t="s">
         <v>84</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>85</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="24"/>
@@ -4222,28 +4258,30 @@
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M49" s="68">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="N49" s="68">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="O49" s="66">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="70"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="72"/>
       <c r="T49" s="74"/>
     </row>
     <row r="50" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A50" s="31"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="C50" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="D50" s="52" t="s">
         <v>86</v>
       </c>
@@ -4255,13 +4293,13 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M50" s="68">
-        <v>42963</v>
+        <v>42962</v>
       </c>
       <c r="N50" s="68">
-        <v>42963</v>
+        <v>42962</v>
       </c>
       <c r="O50" s="66">
         <f t="shared" si="3"/>
@@ -4276,26 +4314,24 @@
     <row r="51" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A51" s="31"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" s="25">
+        <v>82</v>
+      </c>
+      <c r="M51" s="68">
         <v>42963</v>
       </c>
-      <c r="N51" s="25">
+      <c r="N51" s="68">
         <v>42963</v>
       </c>
       <c r="O51" s="66">
@@ -4304,14 +4340,16 @@
       </c>
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="70"/>
       <c r="T51" s="74"/>
     </row>
     <row r="52" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A52" s="31"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
+      <c r="C52" s="51" t="s">
+        <v>88</v>
+      </c>
       <c r="D52" s="52" t="s">
         <v>89</v>
       </c>
@@ -4326,10 +4364,10 @@
         <v>53</v>
       </c>
       <c r="M52" s="25">
-        <v>42964</v>
+        <v>42963</v>
       </c>
       <c r="N52" s="25">
-        <v>42964</v>
+        <v>42963</v>
       </c>
       <c r="O52" s="66">
         <f t="shared" si="3"/>
@@ -4359,10 +4397,10 @@
         <v>53</v>
       </c>
       <c r="M53" s="25">
-        <v>42965</v>
+        <v>42964</v>
       </c>
       <c r="N53" s="25">
-        <v>42965</v>
+        <v>42964</v>
       </c>
       <c r="O53" s="66">
         <f t="shared" si="3"/>
@@ -4377,10 +4415,10 @@
     <row r="54" s="4" customFormat="1" ht="13.5" spans="1:20">
       <c r="A54" s="31"/>
       <c r="B54" s="50"/>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="52"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
@@ -4389,13 +4427,13 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="M54" s="68">
-        <v>42964</v>
-      </c>
-      <c r="N54" s="68">
-        <v>42964</v>
+        <v>53</v>
+      </c>
+      <c r="M54" s="25">
+        <v>42965</v>
+      </c>
+      <c r="N54" s="25">
+        <v>42965</v>
       </c>
       <c r="O54" s="66">
         <f t="shared" si="3"/>
@@ -4422,13 +4460,13 @@
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M55" s="68">
-        <v>42965</v>
+        <v>42964</v>
       </c>
       <c r="N55" s="68">
-        <v>42965</v>
+        <v>42964</v>
       </c>
       <c r="O55" s="66">
         <f t="shared" si="3"/>
@@ -4441,7 +4479,7 @@
       <c r="T55" s="74"/>
     </row>
     <row r="56" s="4" customFormat="1" ht="13.5" spans="1:20">
-      <c r="A56" s="27"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="50"/>
       <c r="C56" s="52" t="s">
         <v>93</v>
@@ -4455,13 +4493,13 @@
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
       <c r="L56" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M56" s="68">
-        <v>42966</v>
+        <v>42965</v>
       </c>
       <c r="N56" s="68">
-        <v>42968</v>
+        <v>42965</v>
       </c>
       <c r="O56" s="66">
         <f t="shared" si="3"/>
@@ -4473,44 +4511,46 @@
       <c r="S56" s="25"/>
       <c r="T56" s="74"/>
     </row>
-    <row r="57" s="4" customFormat="1" ht="19.5" customHeight="1" spans="1:20">
-      <c r="A57" s="19">
-        <v>3</v>
-      </c>
-      <c r="B57" s="50" t="s">
+    <row r="57" s="4" customFormat="1" ht="13.5" spans="1:20">
+      <c r="A57" s="27"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="63"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="67" t="s">
+        <v>82</v>
+      </c>
       <c r="M57" s="68">
+        <v>42966</v>
+      </c>
+      <c r="N57" s="68">
         <v>42968</v>
       </c>
-      <c r="N57" s="68">
-        <v>42969</v>
-      </c>
       <c r="O57" s="66">
-        <f t="shared" ref="O56:O58" si="4">IF(OR(M57="",N57=""),"",NETWORKDAYS(M57,N57))</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P57" s="25"/>
       <c r="Q57" s="25"/>
       <c r="R57" s="25"/>
-      <c r="S57" s="70"/>
+      <c r="S57" s="25"/>
       <c r="T57" s="74"/>
     </row>
     <row r="58" s="4" customFormat="1" ht="19.5" customHeight="1" spans="1:20">
-      <c r="A58" s="27"/>
-      <c r="B58" s="50"/>
+      <c r="A58" s="19">
+        <v>3</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>95</v>
+      </c>
       <c r="C58" s="21" t="s">
         <v>96</v>
       </c>
@@ -4523,15 +4563,15 @@
       <c r="J58" s="25"/>
       <c r="K58" s="64"/>
       <c r="L58" s="65"/>
-      <c r="M58" s="25">
-        <v>42970</v>
-      </c>
-      <c r="N58" s="25">
-        <v>42978</v>
+      <c r="M58" s="68">
+        <v>42968</v>
+      </c>
+      <c r="N58" s="68">
+        <v>42969</v>
       </c>
       <c r="O58" s="66">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" ref="O57:O59" si="4">IF(OR(M58="",N58=""),"",NETWORKDAYS(M58,N58))</f>
+        <v>2</v>
       </c>
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
@@ -4539,43 +4579,46 @@
       <c r="S58" s="70"/>
       <c r="T58" s="74"/>
     </row>
-    <row r="59" s="4" customFormat="1" ht="27" spans="1:20">
-      <c r="A59" s="56">
-        <v>4</v>
-      </c>
-      <c r="B59" s="57" t="s">
+    <row r="59" s="4" customFormat="1" ht="19.5" customHeight="1" spans="1:20">
+      <c r="A59" s="27"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="63"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="66"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="25">
+        <v>42970</v>
+      </c>
+      <c r="N59" s="25">
+        <v>42978</v>
+      </c>
+      <c r="O59" s="66">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
       <c r="P59" s="25"/>
-      <c r="Q59" s="75"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="72"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="70"/>
       <c r="T59" s="74"/>
     </row>
     <row r="60" s="4" customFormat="1" ht="27" spans="1:20">
       <c r="A60" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="23"/>
@@ -4595,34 +4638,62 @@
       <c r="S60" s="72"/>
       <c r="T60" s="74"/>
     </row>
+    <row r="61" s="4" customFormat="1" ht="27" spans="1:20">
+      <c r="A61" s="56">
+        <v>5</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="74"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:T60"/>
+  <autoFilter ref="A3:T61"/>
   <mergeCells count="22">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A56"/>
-    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A6:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B39"/>
-    <mergeCell ref="B40:B56"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B6:B40"/>
+    <mergeCell ref="B41:B57"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 E19 E20 E21 E22 E23 E24 E33 E42 E43 E44 E45 E48 E4:E17 E25:E30 E31:E32 E34:E39 E40:E41 E46:E47 E49:E50 E51:E60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 E19 E20 E21 E22 E23 E24 E33 E34 E43 E44 E45 E46 E49 E4:E17 E25:E30 E31:E32 E35:E40 E41:E42 E47:E48 E50:E51 E52:E61">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
